--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+  <si>
+    <t>Manchester City v RB Leipzig</t>
+  </si>
+  <si>
+    <t>15/09/2021 20:00 | UEFA Champions League</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
   <si>
     <t xml:space="preserve">Manchester City v Southampton </t>
   </si>
@@ -22,7 +31,25 @@
     <t>18/09/2021 15:00 | Premier League</t>
   </si>
   <si>
-    <t>47</t>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Manchester City v Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>21/09/2021 19:45 | Carabao Cup</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Chelsea v Manchester City</t>
+  </si>
+  <si>
+    <t>25/09/2021 12:30 | Premier League</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>Manchester City v Burnley</t>
@@ -31,108 +58,102 @@
     <t>16/10/2021 15:00 | Premier League</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Crystal Palace </t>
+  </si>
+  <si>
+    <t>30/10/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Everton </t>
+  </si>
+  <si>
+    <t>20/11/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Manchester City v West Ham United</t>
+  </si>
+  <si>
+    <t>27/11/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Manchester City v Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>11/12/2021 15:00 | Premier League</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester City v Crystal Palace </t>
-  </si>
-  <si>
-    <t>30/10/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Everton </t>
-  </si>
-  <si>
-    <t>20/11/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Manchester City v West Ham United</t>
-  </si>
-  <si>
-    <t>27/11/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Manchester City v Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>11/12/2021 15:00 | Premier League</t>
+    <t xml:space="preserve">Manchester City v Leeds United </t>
+  </si>
+  <si>
+    <t>15/12/2021 20:00 | Premier League</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Manchester City v Leicester City</t>
+  </si>
+  <si>
+    <t>26/12/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>Manchester City v Chelsea</t>
+  </si>
+  <si>
+    <t>15/01/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>Manchester City v Brentford</t>
+  </si>
+  <si>
+    <t>09/02/2022 20:00 | Premier League</t>
+  </si>
+  <si>
+    <t>Manchester City v Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>19/02/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>Manchester City v Manchester United</t>
+  </si>
+  <si>
+    <t>05/03/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>
+  </si>
+  <si>
+    <t>19/03/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Liverpool </t>
+  </si>
+  <si>
+    <t>09/04/2022 15:00 | Premier League</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester City v Leeds United </t>
-  </si>
-  <si>
-    <t>15/12/2021 20:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Leicester City</t>
-  </si>
-  <si>
-    <t>26/12/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Manchester City v Chelsea</t>
-  </si>
-  <si>
-    <t>15/01/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Manchester City v Brentford</t>
-  </si>
-  <si>
-    <t>09/02/2022 20:00 | Premier League</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Manchester City v Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>19/02/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Manchester United</t>
-  </si>
-  <si>
-    <t>05/03/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>
-  </si>
-  <si>
-    <t>19/03/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Liverpool </t>
-  </si>
-  <si>
-    <t>09/04/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>Manchester City v Watford</t>
   </si>
   <si>
@@ -151,7 +172,7 @@
     <t>22/05/2022 15:00 | Premier League</t>
   </si>
   <si>
-    <t>58</t>
+    <t>51</t>
   </si>
 </sst>
 </file>
@@ -483,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,73 +584,73 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -640,29 +661,29 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -674,6 +695,39 @@
       </c>
       <c r="C17" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Manchester City v RB Leipzig</t>
   </si>
@@ -22,138 +22,147 @@
     <t>15/09/2021 20:00 | UEFA Champions League</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Southampton </t>
+  </si>
+  <si>
+    <t>18/09/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Manchester City v Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>21/09/2021 19:45 | Carabao Cup</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Chelsea v Manchester City</t>
+  </si>
+  <si>
+    <t>25/09/2021 12:30 | Premier League</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Manchester City v Burnley</t>
+  </si>
+  <si>
+    <t>16/10/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Crystal Palace </t>
+  </si>
+  <si>
+    <t>30/10/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Everton </t>
+  </si>
+  <si>
+    <t>20/11/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Manchester City v West Ham United</t>
+  </si>
+  <si>
+    <t>27/11/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>Manchester City v Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>11/12/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Leeds United </t>
+  </si>
+  <si>
+    <t>15/12/2021 20:00 | Premier League</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Manchester City v Leicester City</t>
+  </si>
+  <si>
+    <t>26/12/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Manchester City v Chelsea</t>
+  </si>
+  <si>
+    <t>15/01/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Manchester City v Brentford</t>
+  </si>
+  <si>
+    <t>09/02/2022 20:00 | Premier League</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Manchester City v Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>19/02/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Manchester City v Manchester United</t>
+  </si>
+  <si>
+    <t>05/03/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>
+  </si>
+  <si>
+    <t>19/03/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Liverpool </t>
+  </si>
+  <si>
+    <t>09/04/2022 15:00 | Premier League</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester City v Southampton </t>
-  </si>
-  <si>
-    <t>18/09/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Manchester City v Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>21/09/2021 19:45 | Carabao Cup</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Chelsea v Manchester City</t>
-  </si>
-  <si>
-    <t>25/09/2021 12:30 | Premier League</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Manchester City v Burnley</t>
-  </si>
-  <si>
-    <t>16/10/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Crystal Palace </t>
-  </si>
-  <si>
-    <t>30/10/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Everton </t>
-  </si>
-  <si>
-    <t>20/11/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Manchester City v West Ham United</t>
-  </si>
-  <si>
-    <t>27/11/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Manchester City v Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>11/12/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Leeds United </t>
-  </si>
-  <si>
-    <t>15/12/2021 20:00 | Premier League</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Manchester City v Leicester City</t>
-  </si>
-  <si>
-    <t>26/12/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Chelsea</t>
-  </si>
-  <si>
-    <t>15/01/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Brentford</t>
-  </si>
-  <si>
-    <t>09/02/2022 20:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>19/02/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Manchester United</t>
-  </si>
-  <si>
-    <t>05/03/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>
-  </si>
-  <si>
-    <t>19/03/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Liverpool </t>
-  </si>
-  <si>
-    <t>09/04/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>Manchester City v Watford</t>
   </si>
   <si>
@@ -166,13 +175,13 @@
     <t>07/05/2022 15:00 | Premier League</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
     <t>Manchester City v Aston Villa</t>
   </si>
   <si>
     <t>22/05/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>51</t>
   </si>
 </sst>
 </file>
@@ -595,51 +604,51 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -650,84 +659,84 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Manchester City v RB Leipzig</t>
   </si>
@@ -22,7 +22,7 @@
     <t>15/09/2021 20:00 | UEFA Champions League</t>
   </si>
   <si>
-    <t>44</t>
+    <t>36</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester City v Southampton </t>
@@ -31,7 +31,7 @@
     <t>18/09/2021 15:00 | Premier League</t>
   </si>
   <si>
-    <t>37</t>
+    <t>43</t>
   </si>
   <si>
     <t>Manchester City v Wycombe Wanderers</t>
@@ -40,129 +40,126 @@
     <t>21/09/2021 19:45 | Carabao Cup</t>
   </si>
   <si>
+    <t>Chelsea v Manchester City</t>
+  </si>
+  <si>
+    <t>25/09/2021 12:30 | Premier League</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Manchester City v Burnley</t>
+  </si>
+  <si>
+    <t>16/10/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Crystal Palace </t>
+  </si>
+  <si>
+    <t>30/10/2021 15:00 | Premier League</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
-    <t>Chelsea v Manchester City</t>
-  </si>
-  <si>
-    <t>25/09/2021 12:30 | Premier League</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Manchester City v Burnley</t>
-  </si>
-  <si>
-    <t>16/10/2021 15:00 | Premier League</t>
+    <t xml:space="preserve">Manchester City v Everton </t>
+  </si>
+  <si>
+    <t>20/11/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Manchester City v West Ham United</t>
+  </si>
+  <si>
+    <t>27/11/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Manchester City v Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>11/12/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Leeds United </t>
+  </si>
+  <si>
+    <t>15/12/2021 20:00 | Premier League</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Manchester City v Leicester City</t>
+  </si>
+  <si>
+    <t>26/12/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Manchester City v Chelsea</t>
+  </si>
+  <si>
+    <t>15/01/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Manchester City v Brentford</t>
+  </si>
+  <si>
+    <t>09/02/2022 20:00 | Premier League</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Manchester City v Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>19/02/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>Manchester City v Manchester United</t>
+  </si>
+  <si>
+    <t>05/03/2022 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>
+  </si>
+  <si>
+    <t>19/03/2022 15:00 | Premier League</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t xml:space="preserve">Manchester City v Crystal Palace </t>
-  </si>
-  <si>
-    <t>30/10/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Everton </t>
-  </si>
-  <si>
-    <t>20/11/2021 15:00 | Premier League</t>
+    <t xml:space="preserve">Manchester City v Liverpool </t>
+  </si>
+  <si>
+    <t>09/04/2022 15:00 | Premier League</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>Manchester City v West Ham United</t>
-  </si>
-  <si>
-    <t>27/11/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>11/12/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Leeds United </t>
-  </si>
-  <si>
-    <t>15/12/2021 20:00 | Premier League</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Manchester City v Leicester City</t>
-  </si>
-  <si>
-    <t>26/12/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Manchester City v Chelsea</t>
-  </si>
-  <si>
-    <t>15/01/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Manchester City v Brentford</t>
-  </si>
-  <si>
-    <t>09/02/2022 20:00 | Premier League</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Manchester City v Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>19/02/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Manchester City v Manchester United</t>
-  </si>
-  <si>
-    <t>05/03/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>
-  </si>
-  <si>
-    <t>19/03/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Liverpool </t>
-  </si>
-  <si>
-    <t>09/04/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>Manchester City v Watford</t>
   </si>
   <si>
@@ -175,7 +172,7 @@
     <t>07/05/2022 15:00 | Premier League</t>
   </si>
   <si>
-    <t>46</t>
+    <t>64</t>
   </si>
   <si>
     <t>Manchester City v Aston Villa</t>
@@ -549,62 +546,62 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -615,7 +612,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -670,73 +667,73 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -7,32 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Fixtures" sheetId="1" r:id="rId1"/>
+    <sheet name="Fixture" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
-  <si>
-    <t>Manchester City v RB Leipzig</t>
-  </si>
-  <si>
-    <t>15/09/2021 20:00 | UEFA Champions League</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Southampton </t>
-  </si>
-  <si>
-    <t>18/09/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Manchester City v Wycombe Wanderers</t>
   </si>
@@ -40,13 +22,10 @@
     <t>21/09/2021 19:45 | Carabao Cup</t>
   </si>
   <si>
-    <t>Chelsea v Manchester City</t>
-  </si>
-  <si>
-    <t>25/09/2021 12:30 | Premier League</t>
-  </si>
-  <si>
-    <t>47</t>
+    <t>Paris Saint-Germain v Manchester City</t>
+  </si>
+  <si>
+    <t>28/09/2021 21:00 | UEFA Champions League</t>
   </si>
   <si>
     <t>Manchester City v Burnley</t>
@@ -55,36 +34,24 @@
     <t>16/10/2021 15:00 | Premier League</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester City v Crystal Palace </t>
   </si>
   <si>
     <t>30/10/2021 15:00 | Premier League</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester City v Everton </t>
   </si>
   <si>
     <t>20/11/2021 15:00 | Premier League</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>Manchester City v West Ham United</t>
   </si>
   <si>
     <t>27/11/2021 15:00 | Premier League</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>Manchester City v Wolverhampton Wanderers</t>
   </si>
   <si>
@@ -97,36 +64,24 @@
     <t>15/12/2021 20:00 | Premier League</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>Manchester City v Leicester City</t>
   </si>
   <si>
     <t>26/12/2021 15:00 | Premier League</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>Manchester City v Chelsea</t>
   </si>
   <si>
     <t>15/01/2022 15:00 | Premier League</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>Manchester City v Brentford</t>
   </si>
   <si>
     <t>09/02/2022 20:00 | Premier League</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>Manchester City v Tottenham Hotspur</t>
   </si>
   <si>
@@ -139,27 +94,18 @@
     <t>05/03/2022 15:00 | Premier League</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>
   </si>
   <si>
     <t>19/03/2022 15:00 | Premier League</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester City v Liverpool </t>
   </si>
   <si>
     <t>09/04/2022 15:00 | Premier League</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>Manchester City v Watford</t>
   </si>
   <si>
@@ -170,9 +116,6 @@
   </si>
   <si>
     <t>07/05/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>64</t>
   </si>
   <si>
     <t>Manchester City v Aston Villa</t>
@@ -510,230 +453,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Manchester City v Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>21/09/2021 19:45 | Carabao Cup</t>
-  </si>
-  <si>
-    <t>Paris Saint-Germain v Manchester City</t>
-  </si>
-  <si>
-    <t>28/09/2021 21:00 | UEFA Champions League</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Manchester City v Burnley</t>
   </si>
@@ -34,6 +22,12 @@
     <t>16/10/2021 15:00 | Premier League</t>
   </si>
   <si>
+    <t>West Ham United v Manchester City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/10/2021 19:45 | </t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester City v Crystal Palace </t>
   </si>
   <si>
@@ -43,13 +37,13 @@
     <t xml:space="preserve">Manchester City v Everton </t>
   </si>
   <si>
-    <t>20/11/2021 15:00 | Premier League</t>
+    <t>21/11/2021 14:00 | Premier League</t>
   </si>
   <si>
     <t>Manchester City v West Ham United</t>
   </si>
   <si>
-    <t>27/11/2021 15:00 | Premier League</t>
+    <t>28/11/2021 14:00 | Premier League</t>
   </si>
   <si>
     <t>Manchester City v Wolverhampton Wanderers</t>
@@ -453,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,14 +589,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,19 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Manchester City v Burnley</t>
-  </si>
-  <si>
-    <t>16/10/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>West Ham United v Manchester City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/10/2021 19:45 | </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Manchester City v Crystal Palace </t>
   </si>
@@ -34,6 +22,12 @@
     <t>30/10/2021 15:00 | Premier League</t>
   </si>
   <si>
+    <t>Manchester City v Club Brugge</t>
+  </si>
+  <si>
+    <t>03/11/2021 20:00 | UEFA Champions League</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manchester City v Everton </t>
   </si>
   <si>
@@ -49,13 +43,13 @@
     <t>Manchester City v Wolverhampton Wanderers</t>
   </si>
   <si>
-    <t>11/12/2021 15:00 | Premier League</t>
+    <t>11/12/2021 12:30 | Premier League</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester City v Leeds United </t>
   </si>
   <si>
-    <t>15/12/2021 20:00 | Premier League</t>
+    <t>14/12/2021 20:00 | Premier League</t>
   </si>
   <si>
     <t>Manchester City v Leicester City</t>
@@ -447,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,14 +575,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Manchester City v Crystal Palace </t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>21/11/2021 14:00 | Premier League</t>
+  </si>
+  <si>
+    <t>Manchester City v Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>24/11/2021 20:00 | UEFA Champions League</t>
   </si>
   <si>
     <t>Manchester City v West Ham United</t>
@@ -441,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,6 +581,14 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,37 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">Manchester City v Crystal Palace </t>
-  </si>
-  <si>
-    <t>30/10/2021 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Club Brugge</t>
-  </si>
-  <si>
-    <t>03/11/2021 20:00 | UEFA Champions League</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Everton </t>
-  </si>
-  <si>
-    <t>21/11/2021 14:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Paris Saint-Germain</t>
-  </si>
-  <si>
-    <t>24/11/2021 20:00 | UEFA Champions League</t>
-  </si>
-  <si>
-    <t>Manchester City v West Ham United</t>
-  </si>
-  <si>
-    <t>28/11/2021 14:00 | Premier League</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Manchester City v Wolverhampton Wanderers</t>
   </si>
@@ -67,7 +37,7 @@
     <t>Manchester City v Chelsea</t>
   </si>
   <si>
-    <t>15/01/2022 15:00 | Premier League</t>
+    <t>15/01/2022 12:30 | Premier League</t>
   </si>
   <si>
     <t>Manchester City v Brentford</t>
@@ -447,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,46 +519,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Manchester City v Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>11/12/2021 12:30 | Premier League</t>
-  </si>
-  <si>
     <t xml:space="preserve">Manchester City v Leeds United </t>
   </si>
   <si>
@@ -32,6 +26,12 @@
   </si>
   <si>
     <t>26/12/2021 15:00 | Premier League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenal v Manchester City </t>
+  </si>
+  <si>
+    <t>01/01/2022 12:30 | Premier League</t>
   </si>
   <si>
     <t>Manchester City v Chelsea</t>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Manchester City v Leeds United </t>
-  </si>
-  <si>
-    <t>14/12/2021 20:00 | Premier League</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Manchester City v Leicester City</t>
   </si>
@@ -28,12 +22,6 @@
     <t>26/12/2021 15:00 | Premier League</t>
   </si>
   <si>
-    <t xml:space="preserve">Arsenal v Manchester City </t>
-  </si>
-  <si>
-    <t>01/01/2022 12:30 | Premier League</t>
-  </si>
-  <si>
     <t>Manchester City v Chelsea</t>
   </si>
   <si>
@@ -43,7 +31,7 @@
     <t>Manchester City v Brentford</t>
   </si>
   <si>
-    <t>09/02/2022 20:00 | Premier League</t>
+    <t>09/02/2022 19:45 | Premier League</t>
   </si>
   <si>
     <t>Manchester City v Tottenham Hotspur</t>
@@ -417,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,22 +491,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Manchester City v Leicester City</t>
-  </si>
-  <si>
-    <t>26/12/2021 15:00 | Premier League</t>
+    <t>Swindon Town v Manchester City</t>
+  </si>
+  <si>
+    <t>07/01/2022 20:00 | FA CUP</t>
   </si>
   <si>
     <t>Manchester City v Chelsea</t>
@@ -37,7 +37,7 @@
     <t>Manchester City v Tottenham Hotspur</t>
   </si>
   <si>
-    <t>19/02/2022 15:00 | Premier League</t>
+    <t>19/02/2022 17:30 | Premier League</t>
   </si>
   <si>
     <t>Manchester City v Manchester United</t>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Swindon Town v Manchester City</t>
-  </si>
-  <si>
-    <t>07/01/2022 20:00 | FA CUP</t>
-  </si>
-  <si>
-    <t>Manchester City v Chelsea</t>
-  </si>
-  <si>
-    <t>15/01/2022 12:30 | Premier League</t>
-  </si>
-  <si>
     <t>Manchester City v Brentford</t>
   </si>
   <si>
     <t>09/02/2022 19:45 | Premier League</t>
+  </si>
+  <si>
+    <t>Norwich City v Manchester City</t>
+  </si>
+  <si>
+    <t>12/02/2022 17:30 | Premier League</t>
+  </si>
+  <si>
+    <t>Sporting CP v Manchester City</t>
+  </si>
+  <si>
+    <t>15/02/2022 20:00 | UEFA Champions League</t>
   </si>
   <si>
     <t>Manchester City v Tottenham Hotspur</t>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -16,24 +16,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
+    <t>Manchester City v Fulham</t>
+  </si>
+  <si>
+    <t>05/02/2022 15:00 | The Emirates FA Cup</t>
+  </si>
+  <si>
     <t>Manchester City v Brentford</t>
   </si>
   <si>
     <t>09/02/2022 19:45 | Premier League</t>
   </si>
   <si>
-    <t>Norwich City v Manchester City</t>
-  </si>
-  <si>
-    <t>12/02/2022 17:30 | Premier League</t>
-  </si>
-  <si>
-    <t>Sporting CP v Manchester City</t>
-  </si>
-  <si>
-    <t>15/02/2022 20:00 | UEFA Champions League</t>
-  </si>
-  <si>
     <t>Manchester City v Tottenham Hotspur</t>
   </si>
   <si>
@@ -43,7 +37,13 @@
     <t>Manchester City v Manchester United</t>
   </si>
   <si>
-    <t>05/03/2022 15:00 | Premier League</t>
+    <t>06/03/2022 16:30 | Premier League</t>
+  </si>
+  <si>
+    <t>Manchester City v Sporting CP</t>
+  </si>
+  <si>
+    <t>09/03/2022 20:00 | UEFA Champions League</t>
   </si>
   <si>
     <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -14,66 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Manchester City v Fulham</t>
-  </si>
-  <si>
-    <t>05/02/2022 15:00 | The Emirates FA Cup</t>
-  </si>
-  <si>
-    <t>Manchester City v Brentford</t>
-  </si>
-  <si>
-    <t>09/02/2022 19:45 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>19/02/2022 17:30 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Manchester United</t>
-  </si>
-  <si>
-    <t>06/03/2022 16:30 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Sporting CP</t>
-  </si>
-  <si>
-    <t>09/03/2022 20:00 | UEFA Champions League</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Brighton &amp; Hove Albion </t>
-  </si>
-  <si>
-    <t>19/03/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City v Liverpool </t>
-  </si>
-  <si>
-    <t>09/04/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Watford</t>
-  </si>
-  <si>
-    <t>23/04/2022 15:00 | Premier League</t>
-  </si>
-  <si>
-    <t>Manchester City v Newcastle United</t>
-  </si>
-  <si>
-    <t>07/05/2022 15:00 | Premier League</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Manchester City v Aston Villa</t>
   </si>
   <si>
-    <t>22/05/2022 15:00 | Premier League</t>
+    <t>had Stadium</t>
   </si>
 </sst>
 </file>
@@ -405,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -419,78 +365,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/fixture/ManCity.xlsx
+++ b/fixture/ManCity.xlsx
@@ -11,17 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Manchester City v Aston Villa</t>
-  </si>
-  <si>
-    <t>had Stadium</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,21 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>